--- a/Financial Statements/ALL_Sites.xlsx
+++ b/Financial Statements/ALL_Sites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F311"/>
+  <dimension ref="A1:F331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1136,93 +1136,83 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
+          <t>Monthly Total OpEx</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3351.209999999999</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4296.199999999999</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3138.99</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3546.53</v>
+      </c>
+      <c r="F31" t="n">
+        <v>14332.93</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Non-operating income/(expense)</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
+          <t>Non-operating income/(expense)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Self-pay revenue</t>
+          <t>Monthly Total Non OpEx</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1235,38 +1225,48 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-94812</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-94812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Commercial Insurance revenue</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Progyny &amp; Stork revenue</t>
+          <t>Self-pay revenue</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1279,38 +1279,38 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>-94812</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>-94812</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Storage revenue</t>
+          <t>Commercial Insurance revenue</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>-228872.08</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-24229</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-253101.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Medication</t>
+          <t>Progyny &amp; Stork revenue</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1332,29 +1332,29 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Nest</t>
+          <t>Storage revenue</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>-228872.08</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>-24229</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>-253101.08</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Other Revenue</t>
+          <t>Medication</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1376,149 +1376,149 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Monthly Total Revenue</t>
+          <t>Nest</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>-228872.08</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-24229</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-94812</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-347913.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
+          <t>Other Revenue</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MD payroll</t>
+          <t>Monthly Total Revenue</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57731.14</v>
+        <v>-228872.08</v>
       </c>
       <c r="D43" t="n">
-        <v>55050.44</v>
+        <v>-24229</v>
       </c>
       <c r="E43" t="n">
-        <v>55050.43</v>
+        <v>-94812</v>
       </c>
       <c r="F43" t="n">
-        <v>167832.01</v>
+        <v>-347913.08</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Clinical payroll</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>28909.59</v>
-      </c>
-      <c r="C44" t="n">
-        <v>12187.16</v>
-      </c>
-      <c r="D44" t="n">
-        <v>27009.6</v>
-      </c>
-      <c r="E44" t="n">
-        <v>15456.68</v>
-      </c>
-      <c r="F44" t="n">
-        <v>83563.03</v>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Lab payroll</t>
+          <t>MD payroll</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>57731.14</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>55050.44</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>55050.43</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>167832.01</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ASC payroll</t>
+          <t>Clinical payroll</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>28909.59</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>12187.16</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>27009.6</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>15456.68</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>83563.03</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Supplies</t>
+          <t>Lab payroll</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1540,7 +1540,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Medication</t>
+          <t>ASC payroll</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1562,281 +1562,281 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Medical services</t>
+          <t>Supplies</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1866.47</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>2268.44</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>19954.91</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>24089.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Monthly Total COGS</t>
+          <t>Medication</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>30776.06</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>72186.74000000001</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>82060.03999999999</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>90462.02</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>275484.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
+          <t>Medical services</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1866.47</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2268.44</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>19954.91</v>
+      </c>
+      <c r="F51" t="n">
+        <v>24089.82</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Payroll</t>
+          <t>Monthly Total COGS</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>892793.1900000002</v>
+        <v>30776.06</v>
       </c>
       <c r="C52" t="n">
-        <v>496987.03</v>
+        <v>72186.74000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>275921.28</v>
+        <v>82060.03999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>565694.4000000001</v>
+        <v>90462.02</v>
       </c>
       <c r="F52" t="n">
-        <v>2231395.9</v>
+        <v>275484.86</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Marketing</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>76854.55999999995</v>
-      </c>
-      <c r="C53" t="n">
-        <v>28990.91</v>
-      </c>
-      <c r="D53" t="n">
-        <v>81435.25000000001</v>
-      </c>
-      <c r="E53" t="n">
-        <v>124717.6899999999</v>
-      </c>
-      <c r="F53" t="n">
-        <v>311998.4099999999</v>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Professional fees</t>
+          <t>Payroll</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>55020.07</v>
+        <v>892793.1900000002</v>
       </c>
       <c r="C54" t="n">
-        <v>36314.25</v>
+        <v>496987.03</v>
       </c>
       <c r="D54" t="n">
-        <v>107262.45</v>
+        <v>275921.28</v>
       </c>
       <c r="E54" t="n">
-        <v>117955.65</v>
+        <v>565694.4000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>316552.42</v>
+        <v>2231395.9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>7609.73</v>
+        <v>76854.55999999995</v>
       </c>
       <c r="C55" t="n">
-        <v>7609.73</v>
+        <v>28990.91</v>
       </c>
       <c r="D55" t="n">
-        <v>8093.73</v>
+        <v>81435.25000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>7609.73</v>
+        <v>124717.6899999999</v>
       </c>
       <c r="F55" t="n">
-        <v>30922.92</v>
+        <v>311998.4099999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>Professional fees</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>49873.03999999999</v>
+        <v>55020.07</v>
       </c>
       <c r="C56" t="n">
-        <v>46008.74999999999</v>
+        <v>36314.25</v>
       </c>
       <c r="D56" t="n">
-        <v>65821.97</v>
+        <v>107262.45</v>
       </c>
       <c r="E56" t="n">
-        <v>112316.34</v>
+        <v>117955.65</v>
       </c>
       <c r="F56" t="n">
-        <v>274020.1</v>
+        <v>316552.42</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-108.3800000000001</v>
+        <v>7609.73</v>
       </c>
       <c r="C57" t="n">
-        <v>-286.4500000000002</v>
+        <v>7609.73</v>
       </c>
       <c r="D57" t="n">
-        <v>3797.77</v>
+        <v>8093.73</v>
       </c>
       <c r="E57" t="n">
-        <v>22709.6</v>
+        <v>7609.73</v>
       </c>
       <c r="F57" t="n">
-        <v>26112.54</v>
+        <v>30922.92</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Employee related expenses</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2233.19</v>
+        <v>49873.03999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>3994.18</v>
+        <v>46008.74999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>7707.49</v>
+        <v>65821.97</v>
       </c>
       <c r="E58" t="n">
-        <v>6754.45</v>
+        <v>112316.34</v>
       </c>
       <c r="F58" t="n">
-        <v>20689.31</v>
+        <v>274020.1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Taxes &amp; Regulatory</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>-108.3800000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>-286.4500000000002</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>3797.77</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>22709.6</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>26112.54</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Bank charges</t>
+          <t>Employee related expenses</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>17174.09</v>
+        <v>2233.19</v>
       </c>
       <c r="C60" t="n">
-        <v>4920.39</v>
+        <v>3994.18</v>
       </c>
       <c r="D60" t="n">
-        <v>37294.77</v>
+        <v>7707.49</v>
       </c>
       <c r="E60" t="n">
-        <v>23563.76</v>
+        <v>6754.45</v>
       </c>
       <c r="F60" t="n">
-        <v>82953.00999999999</v>
+        <v>20689.31</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Taxes &amp; Regulatory</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1858,203 +1858,203 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
+          <t>Bank charges</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>17174.09</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4920.39</v>
+      </c>
+      <c r="D62" t="n">
+        <v>37294.77</v>
+      </c>
+      <c r="E62" t="n">
+        <v>23563.76</v>
+      </c>
+      <c r="F62" t="n">
+        <v>82953.00999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Non-operating income/(expense)</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-67317.48</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>-22.23</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-24.61</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>26593.51</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>-40770.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
+          <t>Monthly Total OpEx</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1101449.49</v>
+      </c>
+      <c r="C64" t="n">
+        <v>624538.79</v>
+      </c>
+      <c r="D64" t="n">
+        <v>587334.7100000001</v>
+      </c>
+      <c r="E64" t="n">
+        <v>981321.62</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3294644.61</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Self-pay revenue</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>-272474.2</v>
-      </c>
-      <c r="C65" t="n">
-        <v>-291773.61</v>
-      </c>
-      <c r="D65" t="n">
-        <v>-349577.3100000001</v>
-      </c>
-      <c r="E65" t="n">
-        <v>-553128.2300000001</v>
-      </c>
-      <c r="F65" t="n">
-        <v>-1466953.35</v>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Commercial Insurance revenue</t>
+          <t>Non-operating income/(expense)</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>-67317.48</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>-22.23</v>
       </c>
       <c r="D66" t="n">
-        <v>-52810.09</v>
+        <v>-24.61</v>
       </c>
       <c r="E66" t="n">
-        <v>-4493.44</v>
+        <v>26593.51</v>
       </c>
       <c r="F66" t="n">
-        <v>-57303.53</v>
+        <v>-40770.81</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Progyny &amp; Stork revenue</t>
+          <t>Monthly Total Non OpEx</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>-67317.48</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>-22.23</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>-24.61</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>26593.51</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>-40770.81</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Storage revenue</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Medication</t>
+          <t>Self-pay revenue</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>10671.36</v>
+        <v>-272474.2</v>
       </c>
       <c r="C69" t="n">
-        <v>25021.12</v>
+        <v>-291773.61</v>
       </c>
       <c r="D69" t="n">
-        <v>33819.05</v>
+        <v>-349577.3100000001</v>
       </c>
       <c r="E69" t="n">
-        <v>43145.53999999999</v>
+        <v>-553128.2300000001</v>
       </c>
       <c r="F69" t="n">
-        <v>112657.07</v>
+        <v>-1466953.35</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Nest</t>
+          <t>Commercial Insurance revenue</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -2064,19 +2064,19 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>-52810.09</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>-4493.44</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>-57303.53</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Other Revenue</t>
+          <t>Progyny &amp; Stork revenue</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2098,521 +2098,511 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Monthly Total Revenue</t>
+          <t>Storage revenue</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-261802.84</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>-266752.49</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-368568.35</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>-514476.1300000001</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>-1411599.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
+          <t>Medication</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>10671.36</v>
+      </c>
+      <c r="C73" t="n">
+        <v>25021.12</v>
+      </c>
+      <c r="D73" t="n">
+        <v>33819.05</v>
+      </c>
+      <c r="E73" t="n">
+        <v>43145.53999999999</v>
+      </c>
+      <c r="F73" t="n">
+        <v>112657.07</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MD payroll</t>
+          <t>Nest</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>432208.62</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>251389.57</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>275381.65</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>153378.91</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>1112358.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Clinical payroll</t>
+          <t>Other Revenue</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>121334.8</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>103859.7</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>115078.99</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>108697.05</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>448970.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Lab payroll</t>
+          <t>Monthly Total Revenue</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>84244.45999999999</v>
+        <v>-261802.84</v>
       </c>
       <c r="C76" t="n">
-        <v>93801.45000000001</v>
+        <v>-266752.49</v>
       </c>
       <c r="D76" t="n">
-        <v>88096.73999999999</v>
+        <v>-368568.35</v>
       </c>
       <c r="E76" t="n">
-        <v>85613.44</v>
+        <v>-514476.1300000001</v>
       </c>
       <c r="F76" t="n">
-        <v>351756.09</v>
+        <v>-1411599.81</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ASC payroll</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>35334.27</v>
-      </c>
-      <c r="C77" t="n">
-        <v>31981.01</v>
-      </c>
-      <c r="D77" t="n">
-        <v>25518.05</v>
-      </c>
-      <c r="E77" t="n">
-        <v>26938.22</v>
-      </c>
-      <c r="F77" t="n">
-        <v>119771.55</v>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Supplies</t>
+          <t>MD payroll</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>31622.97999999998</v>
+        <v>432208.62</v>
       </c>
       <c r="C78" t="n">
-        <v>28714.75</v>
+        <v>251389.57</v>
       </c>
       <c r="D78" t="n">
-        <v>16939.23</v>
+        <v>275381.65</v>
       </c>
       <c r="E78" t="n">
-        <v>45659.34</v>
+        <v>153378.91</v>
       </c>
       <c r="F78" t="n">
-        <v>122936.3</v>
+        <v>1112358.75</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Medication</t>
+          <t>Clinical payroll</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>10671.36</v>
+        <v>121334.8</v>
       </c>
       <c r="C79" t="n">
-        <v>25021.12</v>
+        <v>103859.7</v>
       </c>
       <c r="D79" t="n">
-        <v>33819.05</v>
+        <v>115078.99</v>
       </c>
       <c r="E79" t="n">
-        <v>43145.53999999999</v>
+        <v>108697.05</v>
       </c>
       <c r="F79" t="n">
-        <v>112657.07</v>
+        <v>448970.54</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Medical services</t>
+          <t>Lab payroll</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>23293.24</v>
+        <v>84244.45999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>48809.17999999999</v>
+        <v>93801.45000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>31273.2</v>
+        <v>88096.73999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>55973.51000000002</v>
+        <v>85613.44</v>
       </c>
       <c r="F80" t="n">
-        <v>159349.13</v>
+        <v>351756.09</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Monthly Total COGS</t>
+          <t>ASC payroll</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>738709.7299999999</v>
+        <v>35334.27</v>
       </c>
       <c r="C81" t="n">
-        <v>583576.78</v>
+        <v>31981.01</v>
       </c>
       <c r="D81" t="n">
-        <v>586106.9099999999</v>
+        <v>25518.05</v>
       </c>
       <c r="E81" t="n">
-        <v>519406.01</v>
+        <v>26938.22</v>
       </c>
       <c r="F81" t="n">
-        <v>2427799.43</v>
+        <v>119771.55</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
+          <t>Supplies</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>31622.97999999998</v>
+      </c>
+      <c r="C82" t="n">
+        <v>28714.75</v>
+      </c>
+      <c r="D82" t="n">
+        <v>16939.23</v>
+      </c>
+      <c r="E82" t="n">
+        <v>45659.34</v>
+      </c>
+      <c r="F82" t="n">
+        <v>122936.3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Payroll</t>
+          <t>Medication</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>144643.2499999999</v>
+        <v>10671.36</v>
       </c>
       <c r="C83" t="n">
-        <v>88898.58</v>
+        <v>25021.12</v>
       </c>
       <c r="D83" t="n">
-        <v>61190.25</v>
+        <v>33819.05</v>
       </c>
       <c r="E83" t="n">
-        <v>82906.85000000001</v>
+        <v>43145.53999999999</v>
       </c>
       <c r="F83" t="n">
-        <v>377638.9299999999</v>
+        <v>112657.07</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Medical services</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>53622.53</v>
+        <v>23293.24</v>
       </c>
       <c r="C84" t="n">
-        <v>3668.659999999999</v>
+        <v>48809.17999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>8458.15</v>
+        <v>31273.2</v>
       </c>
       <c r="E84" t="n">
-        <v>46113.47</v>
+        <v>55973.51000000002</v>
       </c>
       <c r="F84" t="n">
-        <v>111862.81</v>
+        <v>159349.13</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Professional fees</t>
+          <t>Monthly Total COGS</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>153.96</v>
+        <v>738709.7299999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>583576.78</v>
       </c>
       <c r="D85" t="n">
-        <v>3350</v>
+        <v>586106.9099999999</v>
       </c>
       <c r="E85" t="n">
-        <v>952.1799999999999</v>
+        <v>519406.01</v>
       </c>
       <c r="F85" t="n">
-        <v>4456.14</v>
+        <v>2427799.43</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Rent</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>95675.94</v>
-      </c>
-      <c r="C86" t="n">
-        <v>235635.58</v>
-      </c>
-      <c r="D86" t="n">
-        <v>165671.53</v>
-      </c>
-      <c r="E86" t="n">
-        <v>164126.39</v>
-      </c>
-      <c r="F86" t="n">
-        <v>661109.4400000001</v>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>Payroll</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>16974.23</v>
+        <v>144643.2499999999</v>
       </c>
       <c r="C87" t="n">
-        <v>7301.079999999999</v>
+        <v>88898.58</v>
       </c>
       <c r="D87" t="n">
-        <v>4541.04</v>
+        <v>61190.25</v>
       </c>
       <c r="E87" t="n">
-        <v>15754.39</v>
+        <v>82906.85000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>44570.74</v>
+        <v>377638.9299999999</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>19671.83</v>
+        <v>53622.53</v>
       </c>
       <c r="C88" t="n">
-        <v>493.4999999999997</v>
+        <v>3668.659999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>389.509999999999</v>
+        <v>8458.15</v>
       </c>
       <c r="E88" t="n">
-        <v>19075.43</v>
+        <v>46113.47</v>
       </c>
       <c r="F88" t="n">
-        <v>39630.27</v>
+        <v>111862.81</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Employee related expenses</t>
+          <t>Professional fees</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>626.0699999999999</v>
+        <v>153.96</v>
       </c>
       <c r="C89" t="n">
-        <v>1262.97</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>1643.52</v>
+        <v>3350</v>
       </c>
       <c r="E89" t="n">
-        <v>20587.25</v>
+        <v>952.1799999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>24119.81</v>
+        <v>4456.14</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Taxes &amp; Regulatory</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>95675.94</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>235635.58</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>165671.53</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>164126.39</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>661109.4400000001</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Bank charges</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2205.5</v>
+        <v>16974.23</v>
       </c>
       <c r="C91" t="n">
-        <v>1463.37</v>
+        <v>7301.079999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>1441.6</v>
+        <v>4541.04</v>
       </c>
       <c r="E91" t="n">
-        <v>35057.62</v>
+        <v>15754.39</v>
       </c>
       <c r="F91" t="n">
-        <v>40168.09</v>
+        <v>44570.74</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>19671.83</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>493.4999999999997</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>389.509999999999</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>19075.43</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>39630.27</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
+          <t>Employee related expenses</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>626.0699999999999</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1262.97</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1643.52</v>
+      </c>
+      <c r="E93" t="n">
+        <v>20587.25</v>
+      </c>
+      <c r="F93" t="n">
+        <v>24119.81</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Non-operating income/(expense)</t>
+          <t>Taxes &amp; Regulatory</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -2634,105 +2624,105 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
+          <t>Bank charges</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2205.5</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1463.37</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1441.6</v>
+      </c>
+      <c r="E95" t="n">
+        <v>35057.62</v>
+      </c>
+      <c r="F95" t="n">
+        <v>40168.09</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Self-pay revenue</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>13980</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>45285</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>74265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Commercial Insurance revenue</t>
+          <t>Monthly Total OpEx</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>12658.4</v>
+        <v>333573.3099999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>338723.74</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>246685.6</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>384573.58</v>
       </c>
       <c r="F97" t="n">
-        <v>12658.4</v>
+        <v>1303556.23</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Progyny &amp; Stork revenue</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0</v>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Storage revenue</t>
+          <t>Non-operating income/(expense)</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -2754,641 +2744,631 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Medication</t>
+          <t>Monthly Total Non OpEx</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>19249.4</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>57056.77</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>68786.57999999999</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>42512.12</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>187604.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Nest</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0</v>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Other Revenue</t>
+          <t>Self-pay revenue</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>13980</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>45285</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>74265</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Monthly Total Revenue</t>
+          <t>Commercial Insurance revenue</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>45887.8</v>
+        <v>12658.4</v>
       </c>
       <c r="C103" t="n">
-        <v>72056.77</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>114071.58</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>42512.12</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>274528.27</v>
+        <v>12658.4</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
+          <t>Progyny &amp; Stork revenue</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MD payroll</t>
+          <t>Storage revenue</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>236112.36</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>300467.82</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>108454.93</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>308274.13</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>953309.2399999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Clinical payroll</t>
+          <t>Medication</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>164027.8</v>
+        <v>19249.4</v>
       </c>
       <c r="C106" t="n">
-        <v>153230.34</v>
+        <v>57056.77</v>
       </c>
       <c r="D106" t="n">
-        <v>242182.83</v>
+        <v>68786.57999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>65576.51000000002</v>
+        <v>42512.12</v>
       </c>
       <c r="F106" t="n">
-        <v>625017.48</v>
+        <v>187604.87</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Lab payroll</t>
+          <t>Nest</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>107120.6</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>95937.34</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>88821.64999999999</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>98588.15000000001</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>390467.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ASC payroll</t>
+          <t>Other Revenue</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>55785.01</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>53966.62</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>52650.3</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>36490.1</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>198892.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Supplies</t>
+          <t>Monthly Total Revenue</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>36473.33000000001</v>
+        <v>45887.8</v>
       </c>
       <c r="C109" t="n">
-        <v>61349.06</v>
+        <v>72056.77</v>
       </c>
       <c r="D109" t="n">
-        <v>33699.16</v>
+        <v>114071.58</v>
       </c>
       <c r="E109" t="n">
-        <v>67384.29000000001</v>
+        <v>42512.12</v>
       </c>
       <c r="F109" t="n">
-        <v>198905.84</v>
+        <v>274528.27</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Medication</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>19249.4</v>
-      </c>
-      <c r="C110" t="n">
-        <v>57056.77</v>
-      </c>
-      <c r="D110" t="n">
-        <v>68786.57999999999</v>
-      </c>
-      <c r="E110" t="n">
-        <v>42512.12</v>
-      </c>
-      <c r="F110" t="n">
-        <v>187604.87</v>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Medical services</t>
+          <t>MD payroll</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2018.040000000001</v>
+        <v>236112.36</v>
       </c>
       <c r="C111" t="n">
-        <v>73485.47999999998</v>
+        <v>300467.82</v>
       </c>
       <c r="D111" t="n">
-        <v>51634.49</v>
+        <v>108454.93</v>
       </c>
       <c r="E111" t="n">
-        <v>75748.48</v>
+        <v>308274.13</v>
       </c>
       <c r="F111" t="n">
-        <v>202886.49</v>
+        <v>953309.2399999999</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Monthly Total COGS</t>
+          <t>Clinical payroll</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>620786.54</v>
+        <v>164027.8</v>
       </c>
       <c r="C112" t="n">
-        <v>795493.4300000001</v>
+        <v>153230.34</v>
       </c>
       <c r="D112" t="n">
-        <v>646229.9399999999</v>
+        <v>242182.83</v>
       </c>
       <c r="E112" t="n">
-        <v>694573.78</v>
+        <v>65576.51000000002</v>
       </c>
       <c r="F112" t="n">
-        <v>2757083.689999999</v>
+        <v>625017.48</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
+          <t>Lab payroll</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>107120.6</v>
+      </c>
+      <c r="C113" t="n">
+        <v>95937.34</v>
+      </c>
+      <c r="D113" t="n">
+        <v>88821.64999999999</v>
+      </c>
+      <c r="E113" t="n">
+        <v>98588.15000000001</v>
+      </c>
+      <c r="F113" t="n">
+        <v>390467.74</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Payroll</t>
+          <t>ASC payroll</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>78454.13000000002</v>
+        <v>55785.01</v>
       </c>
       <c r="C114" t="n">
-        <v>81559.04000000001</v>
+        <v>53966.62</v>
       </c>
       <c r="D114" t="n">
-        <v>69967.3</v>
+        <v>52650.3</v>
       </c>
       <c r="E114" t="n">
-        <v>81847.89999999999</v>
+        <v>36490.1</v>
       </c>
       <c r="F114" t="n">
-        <v>311828.37</v>
+        <v>198892.03</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Supplies</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>287.67</v>
+        <v>36473.33000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>97.40000000000003</v>
+        <v>61349.06</v>
       </c>
       <c r="D115" t="n">
-        <v>1511.28</v>
+        <v>33699.16</v>
       </c>
       <c r="E115" t="n">
-        <v>20</v>
+        <v>67384.29000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>1916.35</v>
+        <v>198905.84</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Professional fees</t>
+          <t>Medication</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1906.52</v>
+        <v>19249.4</v>
       </c>
       <c r="C116" t="n">
-        <v>1559.88</v>
+        <v>57056.77</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>68786.57999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>2986.56</v>
+        <v>42512.12</v>
       </c>
       <c r="F116" t="n">
-        <v>6452.96</v>
+        <v>187604.87</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Medical services</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>36447.64</v>
+        <v>2018.040000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>36447.64</v>
+        <v>73485.47999999998</v>
       </c>
       <c r="D117" t="n">
-        <v>36447.64</v>
+        <v>51634.49</v>
       </c>
       <c r="E117" t="n">
-        <v>57475.7</v>
+        <v>75748.48</v>
       </c>
       <c r="F117" t="n">
-        <v>166818.62</v>
+        <v>202886.49</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>Monthly Total COGS</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>21033.65</v>
+        <v>620786.54</v>
       </c>
       <c r="C118" t="n">
-        <v>23018.09</v>
+        <v>795493.4300000001</v>
       </c>
       <c r="D118" t="n">
-        <v>20780.81</v>
+        <v>646229.9399999999</v>
       </c>
       <c r="E118" t="n">
-        <v>22497.19</v>
+        <v>694573.78</v>
       </c>
       <c r="F118" t="n">
-        <v>87329.74000000001</v>
+        <v>2757083.689999999</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Travel</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>1670.45</v>
-      </c>
-      <c r="C119" t="n">
-        <v>1100</v>
-      </c>
-      <c r="D119" t="n">
-        <v>1120</v>
-      </c>
-      <c r="E119" t="n">
-        <v>2406.85</v>
-      </c>
-      <c r="F119" t="n">
-        <v>6297.3</v>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Employee related expenses</t>
+          <t>Payroll</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>4500</v>
+        <v>78454.13000000002</v>
       </c>
       <c r="C120" t="n">
-        <v>6691.64</v>
+        <v>81559.04000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>745.09</v>
+        <v>69967.3</v>
       </c>
       <c r="E120" t="n">
-        <v>3783.57</v>
+        <v>81847.89999999999</v>
       </c>
       <c r="F120" t="n">
-        <v>15720.3</v>
+        <v>311828.37</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Taxes &amp; Regulatory</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>287.67</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>97.40000000000003</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>1511.28</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>1916.35</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Bank charges</t>
+          <t>Professional fees</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1098.84</v>
+        <v>1906.52</v>
       </c>
       <c r="C122" t="n">
-        <v>1565.08</v>
+        <v>1559.88</v>
       </c>
       <c r="D122" t="n">
-        <v>1476.94</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>1579.61</v>
+        <v>2986.56</v>
       </c>
       <c r="F122" t="n">
-        <v>5720.47</v>
+        <v>6452.96</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>36447.64</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>36447.64</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>36447.64</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>57475.7</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>166818.62</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>21033.65</v>
+      </c>
+      <c r="C124" t="n">
+        <v>23018.09</v>
+      </c>
+      <c r="D124" t="n">
+        <v>20780.81</v>
+      </c>
+      <c r="E124" t="n">
+        <v>22497.19</v>
+      </c>
+      <c r="F124" t="n">
+        <v>87329.74000000001</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Non-operating income/(expense)</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1670.45</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>1120</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>2406.85</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>6297.3</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
+          <t>Employee related expenses</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>4500</v>
+      </c>
+      <c r="C126" t="n">
+        <v>6691.64</v>
+      </c>
+      <c r="D126" t="n">
+        <v>745.09</v>
+      </c>
+      <c r="E126" t="n">
+        <v>3783.57</v>
+      </c>
+      <c r="F126" t="n">
+        <v>15720.3</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Self-pay revenue</t>
+          <t>Taxes &amp; Regulatory</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -3410,29 +3390,29 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Commercial Insurance revenue</t>
+          <t>Bank charges</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1098.84</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1565.08</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>1476.94</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>1579.61</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>5720.47</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Progyny &amp; Stork revenue</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -3454,51 +3434,61 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Storage revenue</t>
+          <t>Monthly Total OpEx</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>145398.9</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>152038.77</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>132049.06</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>172597.38</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>602084.1100000001</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Medication</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>0</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0</v>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Nest</t>
+          <t>Non-operating income/(expense)</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -3520,7 +3510,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Other Revenue</t>
+          <t>Monthly Total Non OpEx</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -3542,61 +3532,61 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Monthly Total Revenue</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>0</v>
-      </c>
-      <c r="C134" t="n">
-        <v>0</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0</v>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
+          <t>Self-pay revenue</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>MD payroll</t>
+          <t>Commercial Insurance revenue</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -3618,7 +3608,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Clinical payroll</t>
+          <t>Progyny &amp; Stork revenue</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -3640,7 +3630,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Lab payroll</t>
+          <t>Storage revenue</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -3662,7 +3652,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ASC payroll</t>
+          <t>Medication</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -3684,7 +3674,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Supplies</t>
+          <t>Nest</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -3706,7 +3696,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Medication</t>
+          <t>Other Revenue</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -3728,7 +3718,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Medical services</t>
+          <t>Monthly Total Revenue</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -3750,61 +3740,61 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Monthly Total COGS</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>0</v>
-      </c>
-      <c r="C143" t="n">
-        <v>0</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0</v>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
+          <t>MD payroll</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Payroll</t>
+          <t>Clinical payroll</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -3826,7 +3816,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Lab payroll</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -3848,7 +3838,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Professional fees</t>
+          <t>ASC payroll</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -3870,7 +3860,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Supplies</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -3892,29 +3882,29 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>Medication</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>4361.940000000001</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>856.22</v>
+        <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>1742.53</v>
+        <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>3432.489999999999</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>10393.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Medical services</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -3936,7 +3926,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Employee related expenses</t>
+          <t>Monthly Total COGS</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -3958,29 +3948,39 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Taxes &amp; Regulatory</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>0</v>
-      </c>
-      <c r="C152" t="n">
-        <v>0</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0</v>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Bank charges</t>
+          <t>Payroll</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -4002,7 +4002,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -4024,39 +4024,29 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
+          <t>Professional fees</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Non-operating income/(expense)</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -4078,39 +4068,29 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>4361.940000000001</v>
+      </c>
+      <c r="C157" t="n">
+        <v>856.22</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1742.53</v>
+      </c>
+      <c r="E157" t="n">
+        <v>3432.489999999999</v>
+      </c>
+      <c r="F157" t="n">
+        <v>10393.18</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Self-pay revenue</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -4132,7 +4112,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Commercial Insurance revenue</t>
+          <t>Employee related expenses</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -4154,7 +4134,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Progyny &amp; Stork revenue</t>
+          <t>Taxes &amp; Regulatory</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -4176,7 +4156,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Storage revenue</t>
+          <t>Bank charges</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -4198,7 +4178,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Medication</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -4220,51 +4200,61 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Nest</t>
+          <t>Monthly Total OpEx</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>4361.940000000001</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>856.22</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>1742.53</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>3432.489999999999</v>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>10393.18</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Other Revenue</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>0</v>
-      </c>
-      <c r="C164" t="n">
-        <v>0</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0</v>
-      </c>
-      <c r="F164" t="n">
-        <v>0</v>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Monthly Total Revenue</t>
+          <t>Non-operating income/(expense)</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -4286,83 +4276,83 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
+          <t>Monthly Total Non OpEx</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>MD payroll</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>0</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0</v>
-      </c>
-      <c r="F167" t="n">
-        <v>0</v>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Clinical payroll</t>
+          <t>Self-pay revenue</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>5166.82</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>5667.110000000001</v>
+        <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>6324.51</v>
+        <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>5764.92</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>22923.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Lab payroll</t>
+          <t>Commercial Insurance revenue</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -4384,7 +4374,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ASC payroll</t>
+          <t>Progyny &amp; Stork revenue</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -4406,23 +4396,23 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Supplies</t>
+          <t>Storage revenue</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>290.83</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>2276.88</v>
+        <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>353.34</v>
+        <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>483.25</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>3404.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -4450,105 +4440,105 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Medical services</t>
+          <t>Nest</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-126.02</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>2354.689999999999</v>
+        <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>1450.25</v>
+        <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>1527.96</v>
+        <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>5206.879999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Monthly Total COGS</t>
+          <t>Other Revenue</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>5331.629999999999</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>10298.68</v>
+        <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>8128.1</v>
+        <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>7776.13</v>
+        <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>31534.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
+          <t>Monthly Total Revenue</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Payroll</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>5557.49</v>
-      </c>
-      <c r="C176" t="n">
-        <v>5603.31</v>
-      </c>
-      <c r="D176" t="n">
-        <v>6057.58</v>
-      </c>
-      <c r="E176" t="n">
-        <v>5839.49</v>
-      </c>
-      <c r="F176" t="n">
-        <v>23057.87</v>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>MD payroll</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -4561,104 +4551,104 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>39.66</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>39.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Professional fees</t>
+          <t>Clinical payroll</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>5166.82</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>5667.110000000001</v>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>6324.51</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>5764.92</v>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>22923.36</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Lab payroll</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>6228.54</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>6228.54</v>
+        <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>6228.54</v>
+        <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>6228.54</v>
+        <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>24914.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>ASC payroll</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>673.72</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>310.6</v>
+        <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>353.12</v>
+        <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>9162.84</v>
+        <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>10500.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Supplies</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>290.83</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>2276.88</v>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>353.34</v>
       </c>
       <c r="E181" t="n">
-        <v>39.23</v>
+        <v>483.25</v>
       </c>
       <c r="F181" t="n">
-        <v>39.23</v>
+        <v>3404.3</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Employee related expenses</t>
+          <t>Medication</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -4680,105 +4670,105 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Taxes &amp; Regulatory</t>
+          <t>Medical services</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>-126.02</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>2354.689999999999</v>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>1450.25</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>1527.96</v>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>5206.879999999999</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Bank charges</t>
+          <t>Monthly Total COGS</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>106</v>
+        <v>5331.629999999999</v>
       </c>
       <c r="C184" t="n">
-        <v>106</v>
+        <v>10298.68</v>
       </c>
       <c r="D184" t="n">
-        <v>106</v>
+        <v>8128.1</v>
       </c>
       <c r="E184" t="n">
-        <v>106</v>
+        <v>7776.13</v>
       </c>
       <c r="F184" t="n">
-        <v>424</v>
+        <v>31534.54</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>0</v>
-      </c>
-      <c r="C185" t="n">
-        <v>0</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0</v>
-      </c>
-      <c r="F185" t="n">
-        <v>0</v>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
+          <t>Payroll</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>5557.49</v>
+      </c>
+      <c r="C186" t="n">
+        <v>5603.31</v>
+      </c>
+      <c r="D186" t="n">
+        <v>6057.58</v>
+      </c>
+      <c r="E186" t="n">
+        <v>5839.49</v>
+      </c>
+      <c r="F186" t="n">
+        <v>23057.87</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Non-operating income/(expense)</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -4791,180 +4781,170 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>39.66</v>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>39.66</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
+          <t>Professional fees</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Self-pay revenue</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-3251883.66</v>
+        <v>6228.54</v>
       </c>
       <c r="C189" t="n">
-        <v>-3356793.169999999</v>
+        <v>6228.54</v>
       </c>
       <c r="D189" t="n">
-        <v>-3002393.15</v>
+        <v>6228.54</v>
       </c>
       <c r="E189" t="n">
-        <v>-3236492.83</v>
+        <v>6228.54</v>
       </c>
       <c r="F189" t="n">
-        <v>-12847562.81</v>
+        <v>24914.16</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Commercial Insurance revenue</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-686994.8300000001</v>
+        <v>673.72</v>
       </c>
       <c r="C190" t="n">
-        <v>-160801.41</v>
+        <v>310.6</v>
       </c>
       <c r="D190" t="n">
-        <v>-363076.6400000001</v>
+        <v>353.12</v>
       </c>
       <c r="E190" t="n">
-        <v>-355422.81</v>
+        <v>9162.84</v>
       </c>
       <c r="F190" t="n">
-        <v>-1566295.69</v>
+        <v>10500.28</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Progyny &amp; Stork revenue</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-1993212.01</v>
+        <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>-2008440.76</v>
+        <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>-2023615.23</v>
+        <v>0</v>
       </c>
       <c r="E191" t="n">
-        <v>-2144792.63</v>
+        <v>39.23</v>
       </c>
       <c r="F191" t="n">
-        <v>-8170060.63</v>
+        <v>39.23</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Storage revenue</t>
+          <t>Employee related expenses</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-147358.75</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>-207517.92</v>
+        <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>-165762.92</v>
+        <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>-520639.5900000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Medication</t>
+          <t>Taxes &amp; Regulatory</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>42481.62</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>155342.14</v>
+        <v>0</v>
       </c>
       <c r="D193" t="n">
-        <v>119576.14</v>
+        <v>0</v>
       </c>
       <c r="E193" t="n">
-        <v>126894.89</v>
+        <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>444294.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Nest</t>
+          <t>Bank charges</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="D194" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>424</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Other Revenue</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -4986,707 +4966,707 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Monthly Total Revenue</t>
+          <t>Monthly Total OpEx</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-6036967.63</v>
+        <v>12565.75</v>
       </c>
       <c r="C196" t="n">
-        <v>-5370693.199999999</v>
+        <v>12248.45</v>
       </c>
       <c r="D196" t="n">
-        <v>-5477026.8</v>
+        <v>12745.24</v>
       </c>
       <c r="E196" t="n">
-        <v>-5775576.3</v>
+        <v>21415.76</v>
       </c>
       <c r="F196" t="n">
-        <v>-22660263.93</v>
+        <v>58975.2</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>COGS</t>
+          <t>Non OpEx</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>COGS</t>
+          <t>Non OpEx</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>COGS</t>
+          <t>Non OpEx</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>COGS</t>
+          <t>Non OpEx</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>COGS</t>
+          <t>Non OpEx</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>COGS</t>
+          <t>Non OpEx</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>MD payroll</t>
+          <t>Non-operating income/(expense)</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>273780.16</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>376512.56</v>
+        <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>526425.01</v>
+        <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>501048.29</v>
+        <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>1677766.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Clinical payroll</t>
+          <t>Monthly Total Non OpEx</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>332319.42</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>337061.59</v>
+        <v>0</v>
       </c>
       <c r="D199" t="n">
-        <v>249730.38</v>
+        <v>0</v>
       </c>
       <c r="E199" t="n">
-        <v>271636.76</v>
+        <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>1190748.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Lab payroll</t>
-        </is>
-      </c>
-      <c r="B200" t="n">
-        <v>249230.42</v>
-      </c>
-      <c r="C200" t="n">
-        <v>182315.09</v>
-      </c>
-      <c r="D200" t="n">
-        <v>147149.22</v>
-      </c>
-      <c r="E200" t="n">
-        <v>200550.16</v>
-      </c>
-      <c r="F200" t="n">
-        <v>779244.89</v>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ASC payroll</t>
+          <t>Self-pay revenue</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>55773.75000000001</v>
+        <v>-3251883.66</v>
       </c>
       <c r="C201" t="n">
-        <v>52212.56</v>
+        <v>-3356793.169999999</v>
       </c>
       <c r="D201" t="n">
-        <v>56335.24000000001</v>
+        <v>-3002393.15</v>
       </c>
       <c r="E201" t="n">
-        <v>33094.71</v>
+        <v>-3236492.83</v>
       </c>
       <c r="F201" t="n">
-        <v>197416.26</v>
+        <v>-12847562.81</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Supplies</t>
+          <t>Commercial Insurance revenue</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>76796.12</v>
+        <v>-686994.8300000001</v>
       </c>
       <c r="C202" t="n">
-        <v>64762.21999999999</v>
+        <v>-160801.41</v>
       </c>
       <c r="D202" t="n">
-        <v>95435.49000000001</v>
+        <v>-363076.6400000001</v>
       </c>
       <c r="E202" t="n">
-        <v>98577.17000000007</v>
+        <v>-355422.81</v>
       </c>
       <c r="F202" t="n">
-        <v>335571.0000000001</v>
+        <v>-1566295.69</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Medication</t>
+          <t>Progyny &amp; Stork revenue</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>42481.62</v>
+        <v>-1993212.01</v>
       </c>
       <c r="C203" t="n">
-        <v>155342.14</v>
+        <v>-2008440.76</v>
       </c>
       <c r="D203" t="n">
-        <v>119576.14</v>
+        <v>-2023615.23</v>
       </c>
       <c r="E203" t="n">
-        <v>126894.89</v>
+        <v>-2144792.63</v>
       </c>
       <c r="F203" t="n">
-        <v>444294.79</v>
+        <v>-8170060.63</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Medical services</t>
+          <t>Storage revenue</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>89418.01999999993</v>
+        <v>-147358.75</v>
       </c>
       <c r="C204" t="n">
-        <v>192713.2700000013</v>
+        <v>0</v>
       </c>
       <c r="D204" t="n">
-        <v>116421.0199999998</v>
+        <v>-207517.92</v>
       </c>
       <c r="E204" t="n">
-        <v>185510.1000000008</v>
+        <v>-165762.92</v>
       </c>
       <c r="F204" t="n">
-        <v>584062.4100000018</v>
+        <v>-520639.5900000001</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Monthly Total COGS</t>
+          <t>Medication</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1119799.51</v>
+        <v>42481.62</v>
       </c>
       <c r="C205" t="n">
-        <v>1360919.430000001</v>
+        <v>155342.14</v>
       </c>
       <c r="D205" t="n">
-        <v>1311072.5</v>
+        <v>119576.14</v>
       </c>
       <c r="E205" t="n">
-        <v>1417312.080000001</v>
+        <v>126894.89</v>
       </c>
       <c r="F205" t="n">
-        <v>5209103.520000001</v>
+        <v>444294.79</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
+          <t>Nest</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>0</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Payroll</t>
+          <t>Other Revenue</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>92430.64999999999</v>
+        <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>110124.48</v>
+        <v>0</v>
       </c>
       <c r="D207" t="n">
-        <v>112890.19</v>
+        <v>0</v>
       </c>
       <c r="E207" t="n">
-        <v>122875.4</v>
+        <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>438320.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Monthly Total Revenue</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>3208.62</v>
+        <v>-6036967.63</v>
       </c>
       <c r="C208" t="n">
-        <v>1790.84</v>
+        <v>-5370693.199999999</v>
       </c>
       <c r="D208" t="n">
-        <v>7922.469999999999</v>
+        <v>-5477026.8</v>
       </c>
       <c r="E208" t="n">
-        <v>6872.65</v>
+        <v>-5775576.3</v>
       </c>
       <c r="F208" t="n">
-        <v>19794.58</v>
+        <v>-22660263.93</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Professional fees</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
-        <v>1973</v>
-      </c>
-      <c r="C209" t="n">
-        <v>0</v>
-      </c>
-      <c r="D209" t="n">
-        <v>1886.4</v>
-      </c>
-      <c r="E209" t="n">
-        <v>3575</v>
-      </c>
-      <c r="F209" t="n">
-        <v>7434.4</v>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>MD payroll</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>51996.85</v>
+        <v>273780.16</v>
       </c>
       <c r="C210" t="n">
-        <v>57053.97</v>
+        <v>376512.56</v>
       </c>
       <c r="D210" t="n">
-        <v>43796.86</v>
+        <v>526425.01</v>
       </c>
       <c r="E210" t="n">
-        <v>51996.86</v>
+        <v>501048.29</v>
       </c>
       <c r="F210" t="n">
-        <v>204844.54</v>
+        <v>1677766.02</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>Clinical payroll</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>78084.17999999993</v>
+        <v>332319.42</v>
       </c>
       <c r="C211" t="n">
-        <v>85115.14000000001</v>
+        <v>337061.59</v>
       </c>
       <c r="D211" t="n">
-        <v>50776.63999999999</v>
+        <v>249730.38</v>
       </c>
       <c r="E211" t="n">
-        <v>70158.34000000004</v>
+        <v>271636.76</v>
       </c>
       <c r="F211" t="n">
-        <v>284134.3</v>
+        <v>1190748.15</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Lab payroll</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>10583.04</v>
+        <v>249230.42</v>
       </c>
       <c r="C212" t="n">
-        <v>11468.13</v>
+        <v>182315.09</v>
       </c>
       <c r="D212" t="n">
-        <v>21988.62</v>
+        <v>147149.22</v>
       </c>
       <c r="E212" t="n">
-        <v>31389.33</v>
+        <v>200550.16</v>
       </c>
       <c r="F212" t="n">
-        <v>75429.12</v>
+        <v>779244.89</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Employee related expenses</t>
+          <t>ASC payroll</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>4320.389999999999</v>
+        <v>55773.75000000001</v>
       </c>
       <c r="C213" t="n">
-        <v>15875.33</v>
+        <v>52212.56</v>
       </c>
       <c r="D213" t="n">
-        <v>6150.930000000001</v>
+        <v>56335.24000000001</v>
       </c>
       <c r="E213" t="n">
-        <v>6963.46</v>
+        <v>33094.71</v>
       </c>
       <c r="F213" t="n">
-        <v>33310.11</v>
+        <v>197416.26</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Taxes &amp; Regulatory</t>
+          <t>Supplies</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>76796.12</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>64762.21999999999</v>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>95435.49000000001</v>
       </c>
       <c r="E214" t="n">
-        <v>0</v>
+        <v>98577.17000000007</v>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>335571.0000000001</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Bank charges</t>
+          <t>Medication</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>3588.49</v>
+        <v>42481.62</v>
       </c>
       <c r="C215" t="n">
-        <v>1921.08</v>
+        <v>155342.14</v>
       </c>
       <c r="D215" t="n">
-        <v>2059.95</v>
+        <v>119576.14</v>
       </c>
       <c r="E215" t="n">
-        <v>4870.02</v>
+        <v>126894.89</v>
       </c>
       <c r="F215" t="n">
-        <v>12439.54</v>
+        <v>444294.79</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Medical services</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>89418.01999999993</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>192713.2700000013</v>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>116421.0199999998</v>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>185510.1000000008</v>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>584062.4100000018</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
+          <t>Monthly Total COGS</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1119799.51</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1360919.430000001</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1311072.5</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1417312.080000001</v>
+      </c>
+      <c r="F217" t="n">
+        <v>5209103.520000001</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Non-operating income/(expense)</t>
-        </is>
-      </c>
-      <c r="B218" t="n">
-        <v>-4510.58</v>
-      </c>
-      <c r="C218" t="n">
-        <v>489.42</v>
-      </c>
-      <c r="D218" t="n">
-        <v>489.42</v>
-      </c>
-      <c r="E218" t="n">
-        <v>489.42</v>
-      </c>
-      <c r="F218" t="n">
-        <v>-3042.32</v>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
+          <t>Payroll</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>92430.64999999999</v>
+      </c>
+      <c r="C219" t="n">
+        <v>110124.48</v>
+      </c>
+      <c r="D219" t="n">
+        <v>112890.19</v>
+      </c>
+      <c r="E219" t="n">
+        <v>122875.4</v>
+      </c>
+      <c r="F219" t="n">
+        <v>438320.72</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Self-pay revenue</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>3208.62</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1790.84</v>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>7922.469999999999</v>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>6872.65</v>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>19794.58</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Commercial Insurance revenue</t>
+          <t>Professional fees</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>1973</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
       </c>
       <c r="D221" t="n">
-        <v>0</v>
+        <v>1886.4</v>
       </c>
       <c r="E221" t="n">
-        <v>0</v>
+        <v>3575</v>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>7434.4</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Progyny &amp; Stork revenue</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>51996.85</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>57053.97</v>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>43796.86</v>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
+        <v>51996.86</v>
       </c>
       <c r="F222" t="n">
-        <v>0</v>
+        <v>204844.54</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Storage revenue</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>78084.17999999993</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>85115.14000000001</v>
       </c>
       <c r="D223" t="n">
-        <v>0</v>
+        <v>50776.63999999999</v>
       </c>
       <c r="E223" t="n">
-        <v>0</v>
+        <v>70158.34000000004</v>
       </c>
       <c r="F223" t="n">
-        <v>0</v>
+        <v>284134.3</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Medication</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>3160.12</v>
+        <v>10583.04</v>
       </c>
       <c r="C224" t="n">
-        <v>9820.879999999999</v>
+        <v>11468.13</v>
       </c>
       <c r="D224" t="n">
-        <v>28896.84</v>
+        <v>21988.62</v>
       </c>
       <c r="E224" t="n">
-        <v>11927.47</v>
+        <v>31389.33</v>
       </c>
       <c r="F224" t="n">
-        <v>53805.31</v>
+        <v>75429.12</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Nest</t>
+          <t>Employee related expenses</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>4320.389999999999</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>15875.33</v>
       </c>
       <c r="D225" t="n">
-        <v>0</v>
+        <v>6150.930000000001</v>
       </c>
       <c r="E225" t="n">
-        <v>0</v>
+        <v>6963.46</v>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>33310.11</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Other Revenue</t>
+          <t>Taxes &amp; Regulatory</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -5708,295 +5688,295 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Monthly Total Revenue</t>
+          <t>Bank charges</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>3160.12</v>
+        <v>3588.49</v>
       </c>
       <c r="C227" t="n">
-        <v>9820.879999999999</v>
+        <v>1921.08</v>
       </c>
       <c r="D227" t="n">
-        <v>28896.84</v>
+        <v>2059.95</v>
       </c>
       <c r="E227" t="n">
-        <v>11927.47</v>
+        <v>4870.02</v>
       </c>
       <c r="F227" t="n">
-        <v>53805.31</v>
+        <v>12439.54</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>0</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>MD payroll</t>
+          <t>Monthly Total OpEx</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>246185.2199999999</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>283348.97</v>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>247472.06</v>
       </c>
       <c r="E229" t="n">
-        <v>0</v>
+        <v>298701.0600000001</v>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>1075707.31</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Clinical payroll</t>
-        </is>
-      </c>
-      <c r="B230" t="n">
-        <v>34708.68</v>
-      </c>
-      <c r="C230" t="n">
-        <v>31331.41</v>
-      </c>
-      <c r="D230" t="n">
-        <v>34011.53</v>
-      </c>
-      <c r="E230" t="n">
-        <v>23689.61</v>
-      </c>
-      <c r="F230" t="n">
-        <v>123741.23</v>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Lab payroll</t>
+          <t>Non-operating income/(expense)</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>-4510.58</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>489.42</v>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>489.42</v>
       </c>
       <c r="E231" t="n">
-        <v>0</v>
+        <v>489.42</v>
       </c>
       <c r="F231" t="n">
-        <v>0</v>
+        <v>-3042.32</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ASC payroll</t>
+          <t>Monthly Total Non OpEx</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>-4510.58</v>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>489.42</v>
       </c>
       <c r="D232" t="n">
-        <v>0</v>
+        <v>489.42</v>
       </c>
       <c r="E232" t="n">
-        <v>0</v>
+        <v>489.42</v>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>-3042.32</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Supplies</t>
-        </is>
-      </c>
-      <c r="B233" t="n">
-        <v>2904.88</v>
-      </c>
-      <c r="C233" t="n">
-        <v>659.23</v>
-      </c>
-      <c r="D233" t="n">
-        <v>962.2499999999999</v>
-      </c>
-      <c r="E233" t="n">
-        <v>756.1900000000001</v>
-      </c>
-      <c r="F233" t="n">
-        <v>5282.549999999999</v>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Medication</t>
+          <t>Self-pay revenue</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>3160.12</v>
+        <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>9820.879999999999</v>
+        <v>0</v>
       </c>
       <c r="D234" t="n">
-        <v>28896.84</v>
+        <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>11927.47</v>
+        <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>53805.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Medical services</t>
+          <t>Commercial Insurance revenue</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>2913.64</v>
+        <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>3417.95</v>
+        <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>5024.6</v>
+        <v>0</v>
       </c>
       <c r="E235" t="n">
-        <v>4832.7</v>
+        <v>0</v>
       </c>
       <c r="F235" t="n">
-        <v>16188.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Monthly Total COGS</t>
+          <t>Progyny &amp; Stork revenue</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>43687.32</v>
+        <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>45229.46999999999</v>
+        <v>0</v>
       </c>
       <c r="D236" t="n">
-        <v>68895.22</v>
+        <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>41205.96999999999</v>
+        <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>199017.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
+          <t>Storage revenue</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>0</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Payroll</t>
+          <t>Medication</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>4869.99</v>
+        <v>3160.12</v>
       </c>
       <c r="C238" t="n">
-        <v>6411.08</v>
+        <v>9820.879999999999</v>
       </c>
       <c r="D238" t="n">
-        <v>3496.79</v>
+        <v>28896.84</v>
       </c>
       <c r="E238" t="n">
-        <v>4589.35</v>
+        <v>11927.47</v>
       </c>
       <c r="F238" t="n">
-        <v>19367.21</v>
+        <v>53805.31</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Nest</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>46.2</v>
+        <v>0</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6008,13 +5988,13 @@
         <v>0</v>
       </c>
       <c r="F239" t="n">
-        <v>46.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Professional fees</t>
+          <t>Other Revenue</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -6036,95 +6016,105 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Monthly Total Revenue</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>17296.85</v>
+        <v>3160.12</v>
       </c>
       <c r="C241" t="n">
-        <v>17296.85</v>
+        <v>9820.879999999999</v>
       </c>
       <c r="D241" t="n">
-        <v>17296.85</v>
+        <v>28896.84</v>
       </c>
       <c r="E241" t="n">
-        <v>17296.85</v>
+        <v>11927.47</v>
       </c>
       <c r="F241" t="n">
-        <v>69187.39999999999</v>
+        <v>53805.31</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="B242" t="n">
-        <v>935.26</v>
-      </c>
-      <c r="C242" t="n">
-        <v>673.02</v>
-      </c>
-      <c r="D242" t="n">
-        <v>478.27</v>
-      </c>
-      <c r="E242" t="n">
-        <v>1699.73</v>
-      </c>
-      <c r="F242" t="n">
-        <v>3786.280000000001</v>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>MD payroll</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>534.38</v>
+        <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>454.38</v>
+        <v>0</v>
       </c>
       <c r="D243" t="n">
-        <v>454.38</v>
+        <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>119.71</v>
+        <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>1562.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Employee related expenses</t>
+          <t>Clinical payroll</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>34708.68</v>
       </c>
       <c r="C244" t="n">
-        <v>1000</v>
+        <v>31331.41</v>
       </c>
       <c r="D244" t="n">
-        <v>0</v>
+        <v>34011.53</v>
       </c>
       <c r="E244" t="n">
-        <v>1311.68</v>
+        <v>23689.61</v>
       </c>
       <c r="F244" t="n">
-        <v>2311.68</v>
+        <v>123741.23</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Taxes &amp; Regulatory</t>
+          <t>Lab payroll</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -6146,185 +6136,175 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Bank charges</t>
+          <t>ASC payroll</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="D246" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Supplies</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>2904.88</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>659.23</v>
       </c>
       <c r="D247" t="n">
-        <v>0</v>
+        <v>962.2499999999999</v>
       </c>
       <c r="E247" t="n">
-        <v>0</v>
+        <v>756.1900000000001</v>
       </c>
       <c r="F247" t="n">
-        <v>0</v>
+        <v>5282.549999999999</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
+          <t>Medication</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>3160.12</v>
+      </c>
+      <c r="C248" t="n">
+        <v>9820.879999999999</v>
+      </c>
+      <c r="D248" t="n">
+        <v>28896.84</v>
+      </c>
+      <c r="E248" t="n">
+        <v>11927.47</v>
+      </c>
+      <c r="F248" t="n">
+        <v>53805.31</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Non-operating income/(expense)</t>
+          <t>Medical services</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0</v>
+        <v>2913.64</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>3417.95</v>
       </c>
       <c r="D249" t="n">
-        <v>0</v>
+        <v>5024.6</v>
       </c>
       <c r="E249" t="n">
-        <v>0</v>
+        <v>4832.7</v>
       </c>
       <c r="F249" t="n">
-        <v>0</v>
+        <v>16188.89</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
+          <t>Monthly Total COGS</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>43687.32</v>
+      </c>
+      <c r="C250" t="n">
+        <v>45229.46999999999</v>
+      </c>
+      <c r="D250" t="n">
+        <v>68895.22</v>
+      </c>
+      <c r="E250" t="n">
+        <v>41205.96999999999</v>
+      </c>
+      <c r="F250" t="n">
+        <v>199017.98</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Self-pay revenue</t>
-        </is>
-      </c>
-      <c r="B251" t="n">
-        <v>0</v>
-      </c>
-      <c r="C251" t="n">
-        <v>17586.43</v>
-      </c>
-      <c r="D251" t="n">
-        <v>0</v>
-      </c>
-      <c r="E251" t="n">
-        <v>0</v>
-      </c>
-      <c r="F251" t="n">
-        <v>17586.43</v>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Commercial Insurance revenue</t>
+          <t>Payroll</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>322.78</v>
+        <v>4869.99</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>6411.08</v>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>3496.79</v>
       </c>
       <c r="E252" t="n">
-        <v>0</v>
+        <v>4589.35</v>
       </c>
       <c r="F252" t="n">
-        <v>322.78</v>
+        <v>19367.21</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Progyny &amp; Stork revenue</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>46.2</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -6336,13 +6316,13 @@
         <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>0</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Storage revenue</t>
+          <t>Professional fees</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -6364,758 +6344,758 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Medication</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>7863.12</v>
+        <v>17296.85</v>
       </c>
       <c r="C255" t="n">
-        <v>52501.04</v>
+        <v>17296.85</v>
       </c>
       <c r="D255" t="n">
-        <v>34854.64</v>
+        <v>17296.85</v>
       </c>
       <c r="E255" t="n">
-        <v>35854.27</v>
+        <v>17296.85</v>
       </c>
       <c r="F255" t="n">
-        <v>131073.07</v>
+        <v>69187.39999999999</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Nest</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>935.26</v>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>673.02</v>
       </c>
       <c r="D256" t="n">
-        <v>0</v>
+        <v>478.27</v>
       </c>
       <c r="E256" t="n">
-        <v>0</v>
+        <v>1699.73</v>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>3786.280000000001</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Other Revenue</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>534.38</v>
       </c>
       <c r="C257" t="n">
-        <v>0</v>
+        <v>454.38</v>
       </c>
       <c r="D257" t="n">
-        <v>0</v>
+        <v>454.38</v>
       </c>
       <c r="E257" t="n">
-        <v>0</v>
+        <v>119.71</v>
       </c>
       <c r="F257" t="n">
-        <v>0</v>
+        <v>1562.85</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Monthly Total Revenue</t>
+          <t>Employee related expenses</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>8185.9</v>
+        <v>0</v>
       </c>
       <c r="C258" t="n">
-        <v>70087.47</v>
+        <v>1000</v>
       </c>
       <c r="D258" t="n">
-        <v>34854.64</v>
+        <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>35854.27</v>
+        <v>1311.68</v>
       </c>
       <c r="F258" t="n">
-        <v>148982.28</v>
+        <v>2311.68</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
+          <t>Taxes &amp; Regulatory</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>0</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>MD payroll</t>
+          <t>Bank charges</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>131199</v>
+        <v>106</v>
       </c>
       <c r="C260" t="n">
-        <v>609501.87</v>
+        <v>159</v>
       </c>
       <c r="D260" t="n">
-        <v>-91310.60000000001</v>
+        <v>106</v>
       </c>
       <c r="E260" t="n">
-        <v>404498.8</v>
+        <v>106</v>
       </c>
       <c r="F260" t="n">
-        <v>1053889.07</v>
+        <v>477</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Clinical payroll</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>158013.95</v>
+        <v>0</v>
       </c>
       <c r="C261" t="n">
-        <v>152336.78</v>
+        <v>0</v>
       </c>
       <c r="D261" t="n">
-        <v>272910.4599999999</v>
+        <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>212429.47</v>
+        <v>0</v>
       </c>
       <c r="F261" t="n">
-        <v>795690.6599999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Lab payroll</t>
+          <t>Monthly Total OpEx</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>127770.16</v>
+        <v>23788.68</v>
       </c>
       <c r="C262" t="n">
-        <v>107645.03</v>
+        <v>25994.33</v>
       </c>
       <c r="D262" t="n">
-        <v>95929.75</v>
+        <v>21832.29</v>
       </c>
       <c r="E262" t="n">
-        <v>105459.2</v>
+        <v>25123.32</v>
       </c>
       <c r="F262" t="n">
-        <v>436804.14</v>
+        <v>96738.62</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ASC payroll</t>
-        </is>
-      </c>
-      <c r="B263" t="n">
-        <v>60708.74</v>
-      </c>
-      <c r="C263" t="n">
-        <v>56644.12</v>
-      </c>
-      <c r="D263" t="n">
-        <v>81567.84999999999</v>
-      </c>
-      <c r="E263" t="n">
-        <v>60552.64</v>
-      </c>
-      <c r="F263" t="n">
-        <v>259473.35</v>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Supplies</t>
+          <t>Non-operating income/(expense)</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>34359.98999999999</v>
+        <v>0</v>
       </c>
       <c r="C264" t="n">
-        <v>67815.87999999996</v>
+        <v>0</v>
       </c>
       <c r="D264" t="n">
-        <v>43246.35999999999</v>
+        <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>49784.87999999996</v>
+        <v>0</v>
       </c>
       <c r="F264" t="n">
-        <v>195207.1099999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Medication</t>
+          <t>Monthly Total Non OpEx</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>7863.12</v>
+        <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>52501.04</v>
+        <v>0</v>
       </c>
       <c r="D265" t="n">
-        <v>34854.64</v>
+        <v>0</v>
       </c>
       <c r="E265" t="n">
-        <v>35854.27</v>
+        <v>0</v>
       </c>
       <c r="F265" t="n">
-        <v>131073.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Medical services</t>
-        </is>
-      </c>
-      <c r="B266" t="n">
-        <v>21135.07</v>
-      </c>
-      <c r="C266" t="n">
-        <v>79758.08000000003</v>
-      </c>
-      <c r="D266" t="n">
-        <v>56329.93</v>
-      </c>
-      <c r="E266" t="n">
-        <v>85840.53</v>
-      </c>
-      <c r="F266" t="n">
-        <v>243063.61</v>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Monthly Total COGS</t>
+          <t>Self-pay revenue</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>541050.0299999999</v>
+        <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>1126202.8</v>
+        <v>17586.43</v>
       </c>
       <c r="D267" t="n">
-        <v>493528.3899999998</v>
+        <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>954419.79</v>
+        <v>0</v>
       </c>
       <c r="F267" t="n">
-        <v>3115201.01</v>
+        <v>17586.43</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>OpEx</t>
-        </is>
+          <t>Commercial Insurance revenue</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>322.78</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0</v>
+      </c>
+      <c r="F268" t="n">
+        <v>322.78</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Payroll</t>
+          <t>Progyny &amp; Stork revenue</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>72373.3</v>
+        <v>0</v>
       </c>
       <c r="C269" t="n">
-        <v>62653.02</v>
+        <v>0</v>
       </c>
       <c r="D269" t="n">
-        <v>71712.22</v>
+        <v>0</v>
       </c>
       <c r="E269" t="n">
-        <v>81769.27</v>
+        <v>0</v>
       </c>
       <c r="F269" t="n">
-        <v>288507.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Storage revenue</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>1675.75</v>
+        <v>0</v>
       </c>
       <c r="C270" t="n">
-        <v>24.76999999999998</v>
+        <v>0</v>
       </c>
       <c r="D270" t="n">
-        <v>1605.28</v>
+        <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>383.46</v>
+        <v>0</v>
       </c>
       <c r="F270" t="n">
-        <v>3689.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Professional fees</t>
+          <t>Medication</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>7863.12</v>
       </c>
       <c r="C271" t="n">
-        <v>720</v>
+        <v>52501.04</v>
       </c>
       <c r="D271" t="n">
-        <v>0</v>
+        <v>34854.64</v>
       </c>
       <c r="E271" t="n">
-        <v>0</v>
+        <v>35854.27</v>
       </c>
       <c r="F271" t="n">
-        <v>720</v>
+        <v>131073.07</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Nest</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>30203.27</v>
+        <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>30203.27</v>
+        <v>0</v>
       </c>
       <c r="D272" t="n">
-        <v>30203.27</v>
+        <v>0</v>
       </c>
       <c r="E272" t="n">
-        <v>30203.27</v>
+        <v>0</v>
       </c>
       <c r="F272" t="n">
-        <v>120813.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>Other Revenue</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>11335.11</v>
+        <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>13358.18</v>
+        <v>0</v>
       </c>
       <c r="D273" t="n">
-        <v>11262.01</v>
+        <v>0</v>
       </c>
       <c r="E273" t="n">
-        <v>21621.03</v>
+        <v>0</v>
       </c>
       <c r="F273" t="n">
-        <v>57576.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Monthly Total Revenue</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>200</v>
+        <v>8185.9</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>70087.47</v>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>34854.64</v>
       </c>
       <c r="E274" t="n">
-        <v>3156.69</v>
+        <v>35854.27</v>
       </c>
       <c r="F274" t="n">
-        <v>3356.69</v>
+        <v>148982.28</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Employee related expenses</t>
-        </is>
-      </c>
-      <c r="B275" t="n">
-        <v>120</v>
-      </c>
-      <c r="C275" t="n">
-        <v>11642.65</v>
-      </c>
-      <c r="D275" t="n">
-        <v>709.09</v>
-      </c>
-      <c r="E275" t="n">
-        <v>3428.59</v>
-      </c>
-      <c r="F275" t="n">
-        <v>15900.33</v>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Taxes &amp; Regulatory</t>
+          <t>MD payroll</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0</v>
+        <v>131199</v>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>609501.87</v>
       </c>
       <c r="D276" t="n">
-        <v>0</v>
+        <v>-91310.60000000001</v>
       </c>
       <c r="E276" t="n">
-        <v>0</v>
+        <v>404498.8</v>
       </c>
       <c r="F276" t="n">
-        <v>0</v>
+        <v>1053889.07</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Bank charges</t>
+          <t>Clinical payroll</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>1083.85</v>
+        <v>158013.95</v>
       </c>
       <c r="C277" t="n">
-        <v>1237.91</v>
+        <v>152336.78</v>
       </c>
       <c r="D277" t="n">
-        <v>1385.93</v>
+        <v>272910.4599999999</v>
       </c>
       <c r="E277" t="n">
-        <v>1367.61</v>
+        <v>212429.47</v>
       </c>
       <c r="F277" t="n">
-        <v>5075.299999999999</v>
+        <v>795690.6599999999</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Lab payroll</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0</v>
+        <v>127770.16</v>
       </c>
       <c r="C278" t="n">
-        <v>0</v>
+        <v>107645.03</v>
       </c>
       <c r="D278" t="n">
-        <v>0</v>
+        <v>95929.75</v>
       </c>
       <c r="E278" t="n">
-        <v>0</v>
+        <v>105459.2</v>
       </c>
       <c r="F278" t="n">
-        <v>0</v>
+        <v>436804.14</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
+          <t>ASC payroll</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>60708.74</v>
+      </c>
+      <c r="C279" t="n">
+        <v>56644.12</v>
+      </c>
+      <c r="D279" t="n">
+        <v>81567.84999999999</v>
+      </c>
+      <c r="E279" t="n">
+        <v>60552.64</v>
+      </c>
+      <c r="F279" t="n">
+        <v>259473.35</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Non-operating income/(expense)</t>
+          <t>Supplies</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0</v>
+        <v>34359.98999999999</v>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>67815.87999999996</v>
       </c>
       <c r="D280" t="n">
-        <v>0</v>
+        <v>43246.35999999999</v>
       </c>
       <c r="E280" t="n">
-        <v>0</v>
+        <v>49784.87999999996</v>
       </c>
       <c r="F280" t="n">
-        <v>0</v>
+        <v>195207.1099999999</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>Revenue</t>
-        </is>
+          <t>Medication</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>7863.12</v>
+      </c>
+      <c r="C281" t="n">
+        <v>52501.04</v>
+      </c>
+      <c r="D281" t="n">
+        <v>34854.64</v>
+      </c>
+      <c r="E281" t="n">
+        <v>35854.27</v>
+      </c>
+      <c r="F281" t="n">
+        <v>131073.07</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Self-pay revenue</t>
+          <t>Medical services</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>21135.07</v>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>79758.08000000003</v>
       </c>
       <c r="D282" t="n">
-        <v>0</v>
+        <v>56329.93</v>
       </c>
       <c r="E282" t="n">
-        <v>0</v>
+        <v>85840.53</v>
       </c>
       <c r="F282" t="n">
-        <v>0</v>
+        <v>243063.61</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Commercial Insurance revenue</t>
+          <t>Monthly Total COGS</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0</v>
+        <v>541050.0299999999</v>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>1126202.8</v>
       </c>
       <c r="D283" t="n">
-        <v>0</v>
+        <v>493528.3899999998</v>
       </c>
       <c r="E283" t="n">
-        <v>0</v>
+        <v>954419.79</v>
       </c>
       <c r="F283" t="n">
-        <v>0</v>
+        <v>3115201.01</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Progyny &amp; Stork revenue</t>
-        </is>
-      </c>
-      <c r="B284" t="n">
-        <v>0</v>
-      </c>
-      <c r="C284" t="n">
-        <v>0</v>
-      </c>
-      <c r="D284" t="n">
-        <v>0</v>
-      </c>
-      <c r="E284" t="n">
-        <v>0</v>
-      </c>
-      <c r="F284" t="n">
-        <v>0</v>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Storage revenue</t>
+          <t>Payroll</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>72373.3</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>62653.02</v>
       </c>
       <c r="D285" t="n">
-        <v>0</v>
+        <v>71712.22</v>
       </c>
       <c r="E285" t="n">
-        <v>0</v>
+        <v>81769.27</v>
       </c>
       <c r="F285" t="n">
-        <v>0</v>
+        <v>288507.81</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Medication</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>1675.75</v>
       </c>
       <c r="C286" t="n">
-        <v>0</v>
+        <v>24.76999999999998</v>
       </c>
       <c r="D286" t="n">
-        <v>0</v>
+        <v>1605.28</v>
       </c>
       <c r="E286" t="n">
-        <v>0</v>
+        <v>383.46</v>
       </c>
       <c r="F286" t="n">
-        <v>0</v>
+        <v>3689.26</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Nest</t>
+          <t>Professional fees</t>
         </is>
       </c>
       <c r="B287" t="n">
         <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="D287" t="n">
         <v>0</v>
@@ -7124,111 +7104,101 @@
         <v>0</v>
       </c>
       <c r="F287" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Other Revenue</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0</v>
+        <v>30203.27</v>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>30203.27</v>
       </c>
       <c r="D288" t="n">
-        <v>0</v>
+        <v>30203.27</v>
       </c>
       <c r="E288" t="n">
-        <v>0</v>
+        <v>30203.27</v>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
+        <v>120813.08</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Monthly Total Revenue</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>11335.11</v>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>13358.18</v>
       </c>
       <c r="D289" t="n">
-        <v>0</v>
+        <v>11262.01</v>
       </c>
       <c r="E289" t="n">
-        <v>0</v>
+        <v>21621.03</v>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>57576.33</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
-      </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>COGS</t>
-        </is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>200</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0</v>
+      </c>
+      <c r="E290" t="n">
+        <v>3156.69</v>
+      </c>
+      <c r="F290" t="n">
+        <v>3356.69</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>MD payroll</t>
+          <t>Employee related expenses</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C291" t="n">
-        <v>0</v>
+        <v>11642.65</v>
       </c>
       <c r="D291" t="n">
-        <v>0</v>
+        <v>709.09</v>
       </c>
       <c r="E291" t="n">
-        <v>0</v>
+        <v>3428.59</v>
       </c>
       <c r="F291" t="n">
-        <v>0</v>
+        <v>15900.33</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Clinical payroll</t>
+          <t>Taxes &amp; Regulatory</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -7250,29 +7220,29 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Lab payroll</t>
+          <t>Bank charges</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>1083.85</v>
       </c>
       <c r="C293" t="n">
-        <v>0</v>
+        <v>1237.91</v>
       </c>
       <c r="D293" t="n">
-        <v>0</v>
+        <v>1385.93</v>
       </c>
       <c r="E293" t="n">
-        <v>0</v>
+        <v>1367.61</v>
       </c>
       <c r="F293" t="n">
-        <v>0</v>
+        <v>5075.299999999999</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ASC payroll</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -7294,51 +7264,61 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Supplies</t>
+          <t>Monthly Total OpEx</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>116991.28</v>
       </c>
       <c r="C295" t="n">
-        <v>0</v>
+        <v>119839.8</v>
       </c>
       <c r="D295" t="n">
-        <v>0</v>
+        <v>116877.8</v>
       </c>
       <c r="E295" t="n">
-        <v>0</v>
+        <v>141929.92</v>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>495638.8</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Medication</t>
-        </is>
-      </c>
-      <c r="B296" t="n">
-        <v>0</v>
-      </c>
-      <c r="C296" t="n">
-        <v>0</v>
-      </c>
-      <c r="D296" t="n">
-        <v>0</v>
-      </c>
-      <c r="E296" t="n">
-        <v>0</v>
-      </c>
-      <c r="F296" t="n">
-        <v>0</v>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Medical services</t>
+          <t>Non-operating income/(expense)</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -7360,7 +7340,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Monthly Total COGS</t>
+          <t>Monthly Total Non OpEx</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -7382,39 +7362,39 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>OpEx</t>
+          <t>Revenue</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>OpEx</t>
+          <t>Revenue</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>OpEx</t>
+          <t>Revenue</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>OpEx</t>
+          <t>Revenue</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>OpEx</t>
+          <t>Revenue</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>OpEx</t>
+          <t>Revenue</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Payroll</t>
+          <t>Self-pay revenue</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -7436,7 +7416,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Commercial Insurance revenue</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -7458,11 +7438,11 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Professional fees</t>
+          <t>Progyny &amp; Stork revenue</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>79.05000000000001</v>
+        <v>0</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -7471,16 +7451,16 @@
         <v>0</v>
       </c>
       <c r="E302" t="n">
-        <v>120.21</v>
+        <v>0</v>
       </c>
       <c r="F302" t="n">
-        <v>199.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Storage revenue</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -7502,33 +7482,33 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Facilities</t>
+          <t>Medication</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>98.56</v>
+        <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>-7.105427357601002e-15</v>
+        <v>0</v>
       </c>
       <c r="D304" t="n">
         <v>0</v>
       </c>
       <c r="E304" t="n">
-        <v>17.79</v>
+        <v>0</v>
       </c>
       <c r="F304" t="n">
-        <v>116.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Nest</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>2410.39</v>
+        <v>0</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -7537,38 +7517,38 @@
         <v>0</v>
       </c>
       <c r="E305" t="n">
-        <v>2723.93</v>
+        <v>0</v>
       </c>
       <c r="F305" t="n">
-        <v>5134.320000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Employee related expenses</t>
+          <t>Other Revenue</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>123.38</v>
+        <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>1.154631945610163e-14</v>
+        <v>0</v>
       </c>
       <c r="D306" t="n">
         <v>0</v>
       </c>
       <c r="E306" t="n">
-        <v>142.79</v>
+        <v>0</v>
       </c>
       <c r="F306" t="n">
-        <v>266.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Taxes &amp; Regulatory</t>
+          <t>Monthly Total Revenue</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -7590,29 +7570,39 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Bank charges</t>
-        </is>
-      </c>
-      <c r="B308" t="n">
-        <v>0</v>
-      </c>
-      <c r="C308" t="n">
-        <v>0</v>
-      </c>
-      <c r="D308" t="n">
-        <v>0</v>
-      </c>
-      <c r="E308" t="n">
-        <v>0</v>
-      </c>
-      <c r="F308" t="n">
-        <v>0</v>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>COGS</t>
+        </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>MD payroll</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -7634,54 +7624,504 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
-      </c>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>Non OpEx</t>
-        </is>
+          <t>Clinical payroll</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>0</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0</v>
+      </c>
+      <c r="F310" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
+          <t>Lab payroll</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>0</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0</v>
+      </c>
+      <c r="F311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>ASC payroll</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>0</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0</v>
+      </c>
+      <c r="F312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Supplies</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>0</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0</v>
+      </c>
+      <c r="E313" t="n">
+        <v>0</v>
+      </c>
+      <c r="F313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Medication</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>0</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0</v>
+      </c>
+      <c r="E314" t="n">
+        <v>0</v>
+      </c>
+      <c r="F314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Medical services</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>0</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0</v>
+      </c>
+      <c r="E315" t="n">
+        <v>0</v>
+      </c>
+      <c r="F315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Monthly Total COGS</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>0</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0</v>
+      </c>
+      <c r="E316" t="n">
+        <v>0</v>
+      </c>
+      <c r="F316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>OpEx</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Payroll</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>0</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0</v>
+      </c>
+      <c r="F318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>0</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Professional fees</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>79.05000000000001</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0</v>
+      </c>
+      <c r="E320" t="n">
+        <v>120.21</v>
+      </c>
+      <c r="F320" t="n">
+        <v>199.26</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>0</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0</v>
+      </c>
+      <c r="F321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>98.56</v>
+      </c>
+      <c r="C322" t="n">
+        <v>-7.105427357601002e-15</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0</v>
+      </c>
+      <c r="E322" t="n">
+        <v>17.79</v>
+      </c>
+      <c r="F322" t="n">
+        <v>116.35</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>2410.39</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0</v>
+      </c>
+      <c r="E323" t="n">
+        <v>2723.93</v>
+      </c>
+      <c r="F323" t="n">
+        <v>5134.320000000001</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Employee related expenses</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>123.38</v>
+      </c>
+      <c r="C324" t="n">
+        <v>1.154631945610163e-14</v>
+      </c>
+      <c r="D324" t="n">
+        <v>0</v>
+      </c>
+      <c r="E324" t="n">
+        <v>142.79</v>
+      </c>
+      <c r="F324" t="n">
+        <v>266.17</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Taxes &amp; Regulatory</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>0</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0</v>
+      </c>
+      <c r="D325" t="n">
+        <v>0</v>
+      </c>
+      <c r="E325" t="n">
+        <v>0</v>
+      </c>
+      <c r="F325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Bank charges</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>0</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0</v>
+      </c>
+      <c r="D326" t="n">
+        <v>0</v>
+      </c>
+      <c r="E326" t="n">
+        <v>0</v>
+      </c>
+      <c r="F326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>0</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0</v>
+      </c>
+      <c r="E327" t="n">
+        <v>0</v>
+      </c>
+      <c r="F327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Monthly Total OpEx</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>2711.380000000001</v>
+      </c>
+      <c r="C328" t="n">
+        <v>4.440892098500626e-15</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0</v>
+      </c>
+      <c r="E328" t="n">
+        <v>3004.72</v>
+      </c>
+      <c r="F328" t="n">
+        <v>5716.1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>Non OpEx</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
           <t>Non-operating income/(expense)</t>
         </is>
       </c>
-      <c r="B311" t="n">
-        <v>0</v>
-      </c>
-      <c r="C311" t="n">
-        <v>0</v>
-      </c>
-      <c r="D311" t="n">
-        <v>0</v>
-      </c>
-      <c r="E311" t="n">
-        <v>0</v>
-      </c>
-      <c r="F311" t="n">
+      <c r="B330" t="n">
+        <v>0</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0</v>
+      </c>
+      <c r="E330" t="n">
+        <v>0</v>
+      </c>
+      <c r="F330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Monthly Total Non OpEx</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>0</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0</v>
+      </c>
+      <c r="D331" t="n">
+        <v>0</v>
+      </c>
+      <c r="E331" t="n">
+        <v>0</v>
+      </c>
+      <c r="F331" t="n">
         <v>0</v>
       </c>
     </row>
